--- a/medicine/Mort/Nécropole_nationale_de_Dompierre-Becquincourt/Nécropole_nationale_de_Dompierre-Becquincourt.xlsx
+++ b/medicine/Mort/Nécropole_nationale_de_Dompierre-Becquincourt/Nécropole_nationale_de_Dompierre-Becquincourt.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>N%C3%A9cropole_nationale_de_Dompierre-Becquincourt</t>
+          <t>Nécropole_nationale_de_Dompierre-Becquincourt</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La nécropole nationale de Dompierre-Becquincourt est un cimetière militaire français de la Grande Guerre situé sur le territoire de la commune de Dompierre-Becquincourt dans le département de la Somme.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>N%C3%A9cropole_nationale_de_Dompierre-Becquincourt</t>
+          <t>Nécropole_nationale_de_Dompierre-Becquincourt</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La nécropole nationale de Dompierre-Becquincourt a été créée en 1920. Elle a une superficie de 2,09 ha. En 1935 et 1936, les corps provenant de différents cimetières communaux du département de la Somme y ont été regroupés. De 1948 à 1985, les corps des soldats français retrouvés fortuitement sur les anciens champs de bataille de la Somme y ont également été inhumés[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La nécropole nationale de Dompierre-Becquincourt a été créée en 1920. Elle a une superficie de 2,09 ha. En 1935 et 1936, les corps provenant de différents cimetières communaux du département de la Somme y ont été regroupés. De 1948 à 1985, les corps des soldats français retrouvés fortuitement sur les anciens champs de bataille de la Somme y ont également été inhumés.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>N%C3%A9cropole_nationale_de_Dompierre-Becquincourt</t>
+          <t>Nécropole_nationale_de_Dompierre-Becquincourt</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,11 +556,13 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce cimetière militaire français de la Première Guerre mondiale fut créé en 1920. D'une superficie de 2 ha, il rassemble 7 034 sépultures 5 363 en tombes individuelles et 1 641 dans quatre ossuaires[2]. Parmi les tombes, on trouve de nombreuses sépultures de soldats coloniaux, une tombe belge et une russe.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce cimetière militaire français de la Première Guerre mondiale fut créé en 1920. D'une superficie de 2 ha, il rassemble 7 034 sépultures 5 363 en tombes individuelles et 1 641 dans quatre ossuaires. Parmi les tombes, on trouve de nombreuses sépultures de soldats coloniaux, une tombe belge et une russe.
 À l'entrée du cimetière, se trouve un monument dit des Italiens avec cette épitaphe : « À nos amis français, morts pour leur pays, de la part des Italiens résidents à Dompierre ».
-On y trouve également la tombe d'un soldat français tué au cours de la Seconde Guerre mondiale[3].
+On y trouve également la tombe d'un soldat français tué au cours de la Seconde Guerre mondiale.
 </t>
         </is>
       </c>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>N%C3%A9cropole_nationale_de_Dompierre-Becquincourt</t>
+          <t>Nécropole_nationale_de_Dompierre-Becquincourt</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,6 +592,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
